--- a/AE_experiments.xlsx
+++ b/AE_experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\file_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\Python\Code\Pycharm\Autoencoder_20201013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E51147-B530-4766-8163-F21973458E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67A9D31-2ABF-443C-8F4A-2F3B4116F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="193">
   <si>
     <t>Python</t>
   </si>
@@ -913,6 +913,24 @@
   </si>
   <si>
     <t>D:\code\model_saver\AE_st2118_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encoder的rot部分改成transformer block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\code\model_saver\AE_st2118_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用perlin noise來進行擴增的訓練
+關閉原本的rdm_patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:\code\model_saver\AE_st2118_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1101,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1161,6 +1179,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,14 +1222,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1699,24 +1723,24 @@
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="Q16" s="39" t="s">
+      <c r="Q16" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="39"/>
-      <c r="Y16" s="39" t="s">
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="Y16" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
     </row>
     <row r="18" spans="9:31" x14ac:dyDescent="0.25">
       <c r="K18" t="s">
@@ -1730,39 +1754,39 @@
       </c>
     </row>
     <row r="19" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36" t="s">
+      <c r="J19" s="40"/>
+      <c r="K19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="38"/>
-      <c r="Q19" s="35" t="s">
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="43"/>
+      <c r="Q19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="36" t="s">
+      <c r="R19" s="40"/>
+      <c r="S19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="38"/>
-      <c r="Y19" s="35" t="s">
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="43"/>
+      <c r="Y19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="36" t="s">
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="38"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="43"/>
     </row>
     <row r="20" spans="9:31" x14ac:dyDescent="0.25">
       <c r="I20" s="4" t="s">
@@ -2140,17 +2164,17 @@
       </c>
     </row>
     <row r="26" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36" t="s">
+      <c r="J26" s="40"/>
+      <c r="K26" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="38"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="43"/>
     </row>
     <row r="27" spans="9:31" x14ac:dyDescent="0.25">
       <c r="I27" s="4" t="s">
@@ -2205,28 +2229,28 @@
         <f>M28/L28*100</f>
         <v>75.759464090979904</v>
       </c>
-      <c r="Q28" s="35" t="s">
+      <c r="Q28" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="R28" s="35"/>
-      <c r="S28" s="36" t="s">
+      <c r="R28" s="40"/>
+      <c r="S28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="38"/>
-      <c r="Y28" s="35" t="s">
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="43"/>
+      <c r="Y28" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="36" t="s">
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AB28" s="37"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="37"/>
-      <c r="AE28" s="38"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="43"/>
     </row>
     <row r="29" spans="9:31" x14ac:dyDescent="0.25">
       <c r="I29" s="5">
@@ -2563,28 +2587,28 @@
       </c>
     </row>
     <row r="38" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I38" s="35" t="s">
+      <c r="I38" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="36" t="s">
+      <c r="J38" s="40"/>
+      <c r="K38" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="38"/>
-      <c r="Q38" s="35" t="s">
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="43"/>
+      <c r="Q38" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="R38" s="35"/>
-      <c r="S38" s="36" t="s">
+      <c r="R38" s="40"/>
+      <c r="S38" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="38"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="43"/>
     </row>
     <row r="39" spans="9:31" x14ac:dyDescent="0.25">
       <c r="I39" s="4" t="s">
@@ -2882,28 +2906,28 @@
       </c>
     </row>
     <row r="47" spans="9:31" x14ac:dyDescent="0.25">
-      <c r="I47" s="35" t="s">
+      <c r="I47" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J47" s="35"/>
-      <c r="K47" s="36" t="s">
+      <c r="J47" s="40"/>
+      <c r="K47" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="38"/>
-      <c r="Q47" s="35" t="s">
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="43"/>
+      <c r="Q47" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="35"/>
-      <c r="S47" s="36" t="s">
+      <c r="R47" s="40"/>
+      <c r="S47" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="38"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="43"/>
     </row>
     <row r="48" spans="9:31" x14ac:dyDescent="0.25">
       <c r="I48" s="4" t="s">
@@ -3194,17 +3218,17 @@
       </c>
     </row>
     <row r="56" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I56" s="35" t="s">
+      <c r="I56" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J56" s="35"/>
-      <c r="K56" s="36" t="s">
+      <c r="J56" s="40"/>
+      <c r="K56" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="38"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="43"/>
     </row>
     <row r="57" spans="9:23" x14ac:dyDescent="0.25">
       <c r="I57" s="4" t="s">
@@ -3361,17 +3385,17 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.25">
-      <c r="I66" s="35" t="s">
+      <c r="I66" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="36" t="s">
+      <c r="J66" s="40"/>
+      <c r="K66" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="38"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="43"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.25">
       <c r="I67" s="4" t="s">
@@ -3502,22 +3526,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:O26"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:O56"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:O47"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:W38"/>
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="AA19:AE19"/>
     <mergeCell ref="Q16:W16"/>
@@ -3528,6 +3536,22 @@
     <mergeCell ref="S19:W19"/>
     <mergeCell ref="Q28:R28"/>
     <mergeCell ref="S28:W28"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:W47"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:O26"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:O56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3549,10 +3573,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="5:12" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
@@ -3563,7 +3587,7 @@
       </c>
     </row>
     <row r="5" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="45" t="s">
         <v>67</v>
       </c>
       <c r="F5" t="s">
@@ -3584,7 +3608,7 @@
       </c>
     </row>
     <row r="6" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E6" s="40"/>
+      <c r="E6" s="45"/>
       <c r="F6" t="s">
         <v>65</v>
       </c>
@@ -5354,10 +5378,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6B59A8-51E7-4816-AF5D-4F9E4B55491C}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5483,7 +5507,7 @@
       <c r="Q2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="R2" s="45"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
@@ -5535,7 +5559,7 @@
       <c r="Q3" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="R3" s="45"/>
+      <c r="R3" s="36"/>
     </row>
     <row r="4" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -5641,7 +5665,7 @@
       <c r="Q5" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="R5" s="45"/>
+      <c r="R5" s="36"/>
     </row>
     <row r="6" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -5693,7 +5717,7 @@
       <c r="Q6" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="R6" s="45"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -5803,7 +5827,7 @@
       <c r="Q8" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="R8" s="45"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -5857,7 +5881,7 @@
       <c r="Q9" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="R9" s="45"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -5911,7 +5935,7 @@
       <c r="Q10" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="R10" s="45"/>
+      <c r="R10" s="36"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -5965,7 +5989,7 @@
       <c r="Q11" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="R11" s="45"/>
+      <c r="R11" s="36"/>
     </row>
     <row r="12" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -6019,7 +6043,7 @@
       <c r="Q12" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="R12" s="45"/>
+      <c r="R12" s="36"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -6067,7 +6091,7 @@
       <c r="O13" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="37">
         <v>9</v>
       </c>
       <c r="Q13" s="33" t="s">
@@ -6120,7 +6144,7 @@
       <c r="O14" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="37">
         <v>9</v>
       </c>
       <c r="Q14" s="33" t="s">
@@ -6137,16 +6161,16 @@
       <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="38">
         <v>4</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="38">
         <v>4</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H15" s="24" t="s">
@@ -6155,7 +6179,7 @@
       <c r="I15" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="39">
         <v>64128192256</v>
       </c>
       <c r="K15" s="33">
@@ -6173,7 +6197,7 @@
       <c r="O15" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="37">
         <v>13</v>
       </c>
       <c r="Q15" s="33" t="s">
@@ -6190,16 +6214,16 @@
       <c r="C16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="47">
-        <v>5</v>
-      </c>
-      <c r="E16" s="47">
+      <c r="D16" s="38">
+        <v>5</v>
+      </c>
+      <c r="E16" s="38">
         <v>5</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H16" s="24" t="s">
@@ -6226,7 +6250,7 @@
       <c r="O16" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="37">
         <v>9</v>
       </c>
       <c r="Q16" s="33" t="s">
@@ -6243,16 +6267,16 @@
       <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="47">
-        <v>5</v>
-      </c>
-      <c r="E17" s="47">
+      <c r="D17" s="38">
+        <v>5</v>
+      </c>
+      <c r="E17" s="38">
         <v>5</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -6279,7 +6303,7 @@
       <c r="O17" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="37">
         <v>15</v>
       </c>
       <c r="Q17" s="33" t="s">
@@ -6296,16 +6320,16 @@
       <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="47">
-        <v>5</v>
-      </c>
-      <c r="E18" s="47">
+      <c r="D18" s="38">
+        <v>5</v>
+      </c>
+      <c r="E18" s="38">
         <v>5</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H18" s="24" t="s">
@@ -6332,7 +6356,7 @@
       <c r="O18" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="37">
         <v>15</v>
       </c>
       <c r="Q18" s="33" t="s">
@@ -6349,16 +6373,16 @@
       <c r="C19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="47">
-        <v>5</v>
-      </c>
-      <c r="E19" s="47">
+      <c r="D19" s="38">
+        <v>5</v>
+      </c>
+      <c r="E19" s="38">
         <v>5</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H19" s="24" t="s">
@@ -6385,7 +6409,7 @@
       <c r="O19" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="37">
         <v>16</v>
       </c>
       <c r="Q19" s="33" t="s">
@@ -6402,16 +6426,16 @@
       <c r="C20" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="47">
-        <v>5</v>
-      </c>
-      <c r="E20" s="47">
+      <c r="D20" s="38">
+        <v>5</v>
+      </c>
+      <c r="E20" s="38">
         <v>5</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H20" s="24" t="s">
@@ -6420,7 +6444,7 @@
       <c r="I20" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="39">
         <v>96128160192320</v>
       </c>
       <c r="K20" s="33">
@@ -6438,7 +6462,7 @@
       <c r="O20" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="37">
         <v>15</v>
       </c>
       <c r="Q20" s="33" t="s">
@@ -6455,16 +6479,16 @@
       <c r="C21" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="47">
-        <v>5</v>
-      </c>
-      <c r="E21" s="47">
+      <c r="D21" s="38">
+        <v>5</v>
+      </c>
+      <c r="E21" s="38">
         <v>5</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H21" s="24" t="s">
@@ -6473,7 +6497,7 @@
       <c r="I21" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="39">
         <v>96128160192320</v>
       </c>
       <c r="K21" s="33">
@@ -6491,7 +6515,7 @@
       <c r="O21" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="37">
         <v>16</v>
       </c>
       <c r="Q21" s="33" t="s">
@@ -6508,16 +6532,16 @@
       <c r="C22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="47">
-        <v>5</v>
-      </c>
-      <c r="E22" s="47">
+      <c r="D22" s="38">
+        <v>5</v>
+      </c>
+      <c r="E22" s="38">
         <v>5</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H22" s="24" t="s">
@@ -6526,7 +6550,7 @@
       <c r="I22" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="39" t="s">
         <v>30</v>
       </c>
       <c r="K22" s="33">
@@ -6544,7 +6568,7 @@
       <c r="O22" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="37">
         <v>16</v>
       </c>
       <c r="Q22" s="33" t="s">
@@ -6561,16 +6585,16 @@
       <c r="C23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="47">
-        <v>5</v>
-      </c>
-      <c r="E23" s="47">
+      <c r="D23" s="38">
+        <v>5</v>
+      </c>
+      <c r="E23" s="38">
         <v>5</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="38" t="s">
         <v>161</v>
       </c>
       <c r="H23" s="24" t="s">
@@ -6597,11 +6621,117 @@
       <c r="O23" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="37">
         <v>1</v>
       </c>
       <c r="Q23" s="33" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="38">
+        <v>5</v>
+      </c>
+      <c r="E24" s="38">
+        <v>5</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="35">
+        <v>11520</v>
+      </c>
+      <c r="L24" s="35">
+        <v>1</v>
+      </c>
+      <c r="M24" s="35">
+        <v>0</v>
+      </c>
+      <c r="N24" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="O24" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="37">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="38">
+        <v>5</v>
+      </c>
+      <c r="E25" s="38">
+        <v>5</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="35">
+        <v>11520</v>
+      </c>
+      <c r="L25" s="35">
+        <v>1</v>
+      </c>
+      <c r="M25" s="35">
+        <v>0</v>
+      </c>
+      <c r="N25" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="37">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="35" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -7595,11 +7725,11 @@
       <c r="C4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="2" t="s">
         <v>89</v>
       </c>
@@ -7611,23 +7741,23 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="40"/>
+      <c r="H5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="42" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="43"/>
+      <c r="K5" s="48"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
@@ -7949,11 +8079,11 @@
       <c r="C18" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="2" t="s">
         <v>89</v>
       </c>
@@ -7965,23 +8095,23 @@
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="35"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35" t="s">
+      <c r="G19" s="40"/>
+      <c r="H19" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="42" t="s">
+      <c r="I19" s="40"/>
+      <c r="J19" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="K19" s="43"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
@@ -8306,11 +8436,11 @@
       <c r="C32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="2" t="s">
         <v>90</v>
       </c>
@@ -8322,23 +8452,23 @@
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="35"/>
+      <c r="D33" s="40"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35" t="s">
+      <c r="G33" s="40"/>
+      <c r="H33" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="42" t="s">
+      <c r="I33" s="40"/>
+      <c r="J33" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="43"/>
+      <c r="K33" s="48"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
@@ -8777,21 +8907,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8840,20 +8970,20 @@
       <c r="H4" s="27"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="42" t="s">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
@@ -8882,7 +9012,7 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="49" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="5">
@@ -8908,7 +9038,7 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="44"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="5">
         <v>4929</v>
       </c>
@@ -8932,7 +9062,7 @@
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="44"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="5">
         <v>4929</v>
       </c>
@@ -8956,7 +9086,7 @@
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="44"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="5">
         <v>4929</v>
       </c>
@@ -8980,7 +9110,7 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="44"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="5">
         <v>4929</v>
       </c>
@@ -9004,7 +9134,7 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="44"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="5">
         <v>4929</v>
       </c>
@@ -9028,7 +9158,7 @@
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="44"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="26">
         <v>4929</v>
       </c>
@@ -9052,7 +9182,7 @@
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="44"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="26">
         <v>4929</v>
       </c>
@@ -9076,7 +9206,7 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="44"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="26">
         <v>4929</v>
       </c>
@@ -9100,7 +9230,7 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="44"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="26">
         <v>4929</v>
       </c>
@@ -9124,7 +9254,7 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="44"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="26">
         <v>4929</v>
       </c>
@@ -9148,7 +9278,7 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="44"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="26">
         <v>4929</v>
       </c>
@@ -9172,7 +9302,7 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="44"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="5">
         <v>4929</v>
       </c>
@@ -9196,7 +9326,7 @@
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="44"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="5">
         <v>4929</v>
       </c>
@@ -9220,7 +9350,7 @@
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="44"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="5">
         <v>4929</v>
       </c>
@@ -9244,7 +9374,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="44"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="5">
         <v>4929</v>
       </c>
@@ -9268,7 +9398,7 @@
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="44"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="5">
         <v>4929</v>
       </c>
@@ -9292,7 +9422,7 @@
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="44"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="5">
         <v>4929</v>
       </c>
@@ -9316,7 +9446,7 @@
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="44"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="26">
         <v>4929</v>
       </c>
@@ -9340,7 +9470,7 @@
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="44"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="26">
         <v>4929</v>
       </c>
@@ -9364,7 +9494,7 @@
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="44"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="26">
         <v>4929</v>
       </c>
@@ -9388,7 +9518,7 @@
       </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="44"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="26">
         <v>4929</v>
       </c>
@@ -9412,7 +9542,7 @@
       </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="44"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="26">
         <v>4929</v>
       </c>
@@ -9436,7 +9566,7 @@
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="44"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="26">
         <v>4929</v>
       </c>
@@ -9460,7 +9590,7 @@
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="44"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="5">
         <v>4929</v>
       </c>
@@ -9484,7 +9614,7 @@
       </c>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="44"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="5">
         <v>4929</v>
       </c>
@@ -9508,7 +9638,7 @@
       </c>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="44"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5">
         <v>4929</v>
       </c>
@@ -9532,7 +9662,7 @@
       </c>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="44"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="5">
         <v>4929</v>
       </c>
@@ -9556,7 +9686,7 @@
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="44"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5">
         <v>4929</v>
       </c>
@@ -9580,7 +9710,7 @@
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="44"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5">
         <v>4929</v>
       </c>
@@ -9604,7 +9734,7 @@
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="44"/>
+      <c r="C37" s="49"/>
       <c r="D37" s="26">
         <v>4929</v>
       </c>
@@ -9628,7 +9758,7 @@
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="44"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="26">
         <v>4929</v>
       </c>
@@ -9652,7 +9782,7 @@
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="44"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="26">
         <v>4929</v>
       </c>
@@ -9676,7 +9806,7 @@
       </c>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="44"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="26">
         <v>4929</v>
       </c>
@@ -9700,7 +9830,7 @@
       </c>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="44"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="26">
         <v>4929</v>
       </c>
@@ -9724,7 +9854,7 @@
       </c>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="44"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="26">
         <v>4929</v>
       </c>
@@ -9748,7 +9878,7 @@
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="44"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5">
         <v>4929</v>
       </c>
@@ -9772,7 +9902,7 @@
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="44"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="5">
         <v>4929</v>
       </c>
@@ -9796,7 +9926,7 @@
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="44"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="5">
         <v>4929</v>
       </c>
@@ -9820,7 +9950,7 @@
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="44"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="5">
         <v>4929</v>
       </c>
@@ -9844,7 +9974,7 @@
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C47" s="44"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="5">
         <v>4929</v>
       </c>
@@ -9868,7 +9998,7 @@
       </c>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="44"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="5">
         <v>4929</v>
       </c>
@@ -9892,7 +10022,7 @@
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="44"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="26">
         <v>4929</v>
       </c>
@@ -9916,7 +10046,7 @@
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="44"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="26">
         <v>4929</v>
       </c>
@@ -9940,7 +10070,7 @@
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51" s="44"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="26">
         <v>4929</v>
       </c>
@@ -9964,7 +10094,7 @@
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="44"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="26">
         <v>4929</v>
       </c>
@@ -9988,7 +10118,7 @@
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" s="44"/>
+      <c r="C53" s="49"/>
       <c r="D53" s="26">
         <v>4929</v>
       </c>
@@ -10012,7 +10142,7 @@
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="44"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="26">
         <v>4929</v>
       </c>
@@ -10036,7 +10166,7 @@
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C55" s="44"/>
+      <c r="C55" s="49"/>
       <c r="D55" s="5">
         <v>4929</v>
       </c>
@@ -10060,7 +10190,7 @@
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C56" s="44"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="5">
         <v>4929</v>
       </c>
@@ -10084,7 +10214,7 @@
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C57" s="44"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="5">
         <v>4929</v>
       </c>
@@ -10108,7 +10238,7 @@
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C58" s="44"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="5">
         <v>4929</v>
       </c>
@@ -10132,7 +10262,7 @@
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="44"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="5">
         <v>4929</v>
       </c>
@@ -10156,7 +10286,7 @@
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="44"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="5">
         <v>4929</v>
       </c>
@@ -10180,7 +10310,7 @@
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="44"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="26">
         <v>4929</v>
       </c>
@@ -10204,7 +10334,7 @@
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="44"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="26">
         <v>4929</v>
       </c>
@@ -10228,7 +10358,7 @@
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="44"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="26">
         <v>4929</v>
       </c>
@@ -10252,7 +10382,7 @@
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="44"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="26">
         <v>4929</v>
       </c>
@@ -10276,7 +10406,7 @@
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="44"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="26">
         <v>4929</v>
       </c>
@@ -10300,7 +10430,7 @@
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="44"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="26">
         <v>4929</v>
       </c>
@@ -10324,7 +10454,7 @@
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="44"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="5">
         <v>4929</v>
       </c>
@@ -10348,7 +10478,7 @@
       </c>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="44"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="5">
         <v>4929</v>
       </c>
@@ -10372,7 +10502,7 @@
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="44"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="5">
         <v>4929</v>
       </c>
@@ -10396,7 +10526,7 @@
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="44"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="5">
         <v>4929</v>
       </c>
@@ -10420,7 +10550,7 @@
       </c>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="44"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="5">
         <v>4929</v>
       </c>
@@ -10444,7 +10574,7 @@
       </c>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="44"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="5">
         <v>4929</v>
       </c>
@@ -10468,7 +10598,7 @@
       </c>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C73" s="44"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="26">
         <v>4929</v>
       </c>
@@ -10492,7 +10622,7 @@
       </c>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="44"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="26">
         <v>4929</v>
       </c>
@@ -10516,7 +10646,7 @@
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="44"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="26">
         <v>4929</v>
       </c>
@@ -10540,7 +10670,7 @@
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="44"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="26">
         <v>4929</v>
       </c>
@@ -10564,7 +10694,7 @@
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="44"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="26">
         <v>4929</v>
       </c>
@@ -10588,7 +10718,7 @@
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="44"/>
+      <c r="C78" s="49"/>
       <c r="D78" s="26">
         <v>4929</v>
       </c>
@@ -10612,7 +10742,7 @@
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="44"/>
+      <c r="C79" s="49"/>
       <c r="D79" s="5">
         <v>4929</v>
       </c>
@@ -10636,7 +10766,7 @@
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="44"/>
+      <c r="C80" s="49"/>
       <c r="D80" s="5">
         <v>4929</v>
       </c>
@@ -10660,7 +10790,7 @@
       </c>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C81" s="44"/>
+      <c r="C81" s="49"/>
       <c r="D81" s="5">
         <v>4929</v>
       </c>
@@ -10684,7 +10814,7 @@
       </c>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C82" s="44"/>
+      <c r="C82" s="49"/>
       <c r="D82" s="5">
         <v>4929</v>
       </c>
@@ -10708,7 +10838,7 @@
       </c>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="44"/>
+      <c r="C83" s="49"/>
       <c r="D83" s="5">
         <v>4929</v>
       </c>
@@ -10732,7 +10862,7 @@
       </c>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="44"/>
+      <c r="C84" s="49"/>
       <c r="D84" s="5">
         <v>4929</v>
       </c>
@@ -10756,7 +10886,7 @@
       </c>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="44"/>
+      <c r="C85" s="49"/>
       <c r="D85" s="26">
         <v>4929</v>
       </c>
@@ -10780,7 +10910,7 @@
       </c>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="44"/>
+      <c r="C86" s="49"/>
       <c r="D86" s="26">
         <v>4929</v>
       </c>
@@ -10804,7 +10934,7 @@
       </c>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="44"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="26">
         <v>4929</v>
       </c>
@@ -10828,7 +10958,7 @@
       </c>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="44"/>
+      <c r="C88" s="49"/>
       <c r="D88" s="26">
         <v>4929</v>
       </c>
@@ -10852,7 +10982,7 @@
       </c>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="44"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="26">
         <v>4929</v>
       </c>
@@ -10876,7 +11006,7 @@
       </c>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C90" s="44"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="26">
         <v>4929</v>
       </c>
@@ -10900,7 +11030,7 @@
       </c>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C91" s="44"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="5">
         <v>4929</v>
       </c>
@@ -10924,7 +11054,7 @@
       </c>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="44"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="5">
         <v>4929</v>
       </c>
@@ -10948,7 +11078,7 @@
       </c>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="44"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="5">
         <v>4929</v>
       </c>
@@ -10972,7 +11102,7 @@
       </c>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="44"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="5">
         <v>4929</v>
       </c>
@@ -10996,7 +11126,7 @@
       </c>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="44"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="5">
         <v>4929</v>
       </c>
@@ -11020,7 +11150,7 @@
       </c>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="44"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="5">
         <v>4929</v>
       </c>
@@ -11044,7 +11174,7 @@
       </c>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="44"/>
+      <c r="C97" s="49"/>
       <c r="D97" s="26">
         <v>4929</v>
       </c>
@@ -11068,7 +11198,7 @@
       </c>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="44"/>
+      <c r="C98" s="49"/>
       <c r="D98" s="26">
         <v>4929</v>
       </c>
@@ -11092,7 +11222,7 @@
       </c>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C99" s="44"/>
+      <c r="C99" s="49"/>
       <c r="D99" s="26">
         <v>4929</v>
       </c>
@@ -11116,7 +11246,7 @@
       </c>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C100" s="44"/>
+      <c r="C100" s="49"/>
       <c r="D100" s="26">
         <v>4929</v>
       </c>
@@ -11140,7 +11270,7 @@
       </c>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C101" s="44"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="26">
         <v>4929</v>
       </c>
@@ -11164,7 +11294,7 @@
       </c>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C102" s="44"/>
+      <c r="C102" s="49"/>
       <c r="D102" s="26">
         <v>4929</v>
       </c>
@@ -11188,7 +11318,7 @@
       </c>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C103" s="44"/>
+      <c r="C103" s="49"/>
       <c r="D103" s="5">
         <v>4929</v>
       </c>
@@ -11212,7 +11342,7 @@
       </c>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C104" s="44"/>
+      <c r="C104" s="49"/>
       <c r="D104" s="5">
         <v>4929</v>
       </c>
@@ -11236,7 +11366,7 @@
       </c>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C105" s="44"/>
+      <c r="C105" s="49"/>
       <c r="D105" s="5">
         <v>4929</v>
       </c>
@@ -11260,7 +11390,7 @@
       </c>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C106" s="44"/>
+      <c r="C106" s="49"/>
       <c r="D106" s="5">
         <v>4929</v>
       </c>
@@ -11284,7 +11414,7 @@
       </c>
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C107" s="44"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="5">
         <v>4929</v>
       </c>
@@ -11308,7 +11438,7 @@
       </c>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C108" s="44"/>
+      <c r="C108" s="49"/>
       <c r="D108" s="5">
         <v>4929</v>
       </c>
@@ -11332,7 +11462,7 @@
       </c>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C109" s="44"/>
+      <c r="C109" s="49"/>
       <c r="D109" s="26">
         <v>4929</v>
       </c>
@@ -11356,7 +11486,7 @@
       </c>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C110" s="44"/>
+      <c r="C110" s="49"/>
       <c r="D110" s="26">
         <v>4929</v>
       </c>
@@ -11380,7 +11510,7 @@
       </c>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C111" s="44"/>
+      <c r="C111" s="49"/>
       <c r="D111" s="26">
         <v>4929</v>
       </c>
@@ -11404,7 +11534,7 @@
       </c>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C112" s="44"/>
+      <c r="C112" s="49"/>
       <c r="D112" s="26">
         <v>4929</v>
       </c>
@@ -11428,7 +11558,7 @@
       </c>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C113" s="44"/>
+      <c r="C113" s="49"/>
       <c r="D113" s="26">
         <v>4929</v>
       </c>
@@ -11452,7 +11582,7 @@
       </c>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C114" s="44"/>
+      <c r="C114" s="49"/>
       <c r="D114" s="26">
         <v>4929</v>
       </c>
@@ -11476,7 +11606,7 @@
       </c>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C115" s="44"/>
+      <c r="C115" s="49"/>
       <c r="D115" s="5">
         <v>4929</v>
       </c>
@@ -11500,7 +11630,7 @@
       </c>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C116" s="44"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="5">
         <v>4929</v>
       </c>
@@ -11524,7 +11654,7 @@
       </c>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C117" s="44"/>
+      <c r="C117" s="49"/>
       <c r="D117" s="5">
         <v>4929</v>
       </c>
@@ -11548,7 +11678,7 @@
       </c>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C118" s="44"/>
+      <c r="C118" s="49"/>
       <c r="D118" s="5">
         <v>4929</v>
       </c>
@@ -11572,7 +11702,7 @@
       </c>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C119" s="44"/>
+      <c r="C119" s="49"/>
       <c r="D119" s="5">
         <v>4929</v>
       </c>
@@ -11596,7 +11726,7 @@
       </c>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C120" s="44"/>
+      <c r="C120" s="49"/>
       <c r="D120" s="5">
         <v>4929</v>
       </c>
@@ -11620,7 +11750,7 @@
       </c>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C121" s="44"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="26">
         <v>4929</v>
       </c>
@@ -11644,7 +11774,7 @@
       </c>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C122" s="44"/>
+      <c r="C122" s="49"/>
       <c r="D122" s="26">
         <v>4929</v>
       </c>
@@ -11668,7 +11798,7 @@
       </c>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C123" s="44"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="26">
         <v>4929</v>
       </c>
@@ -11692,7 +11822,7 @@
       </c>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C124" s="44"/>
+      <c r="C124" s="49"/>
       <c r="D124" s="26">
         <v>4929</v>
       </c>
@@ -11716,7 +11846,7 @@
       </c>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C125" s="44"/>
+      <c r="C125" s="49"/>
       <c r="D125" s="26">
         <v>4929</v>
       </c>
@@ -11740,7 +11870,7 @@
       </c>
     </row>
     <row r="126" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C126" s="44"/>
+      <c r="C126" s="49"/>
       <c r="D126" s="26">
         <v>4929</v>
       </c>
@@ -11764,7 +11894,7 @@
       </c>
     </row>
     <row r="127" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C127" s="44"/>
+      <c r="C127" s="49"/>
       <c r="D127" s="5">
         <v>4929</v>
       </c>
@@ -11788,7 +11918,7 @@
       </c>
     </row>
     <row r="128" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C128" s="44"/>
+      <c r="C128" s="49"/>
       <c r="D128" s="5">
         <v>4929</v>
       </c>
@@ -11812,7 +11942,7 @@
       </c>
     </row>
     <row r="129" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C129" s="44"/>
+      <c r="C129" s="49"/>
       <c r="D129" s="5">
         <v>4929</v>
       </c>
@@ -11836,7 +11966,7 @@
       </c>
     </row>
     <row r="130" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C130" s="44"/>
+      <c r="C130" s="49"/>
       <c r="D130" s="5">
         <v>4929</v>
       </c>
@@ -11860,7 +11990,7 @@
       </c>
     </row>
     <row r="131" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C131" s="44"/>
+      <c r="C131" s="49"/>
       <c r="D131" s="5">
         <v>4929</v>
       </c>
@@ -11884,7 +12014,7 @@
       </c>
     </row>
     <row r="132" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C132" s="44"/>
+      <c r="C132" s="49"/>
       <c r="D132" s="5">
         <v>4929</v>
       </c>
@@ -11908,7 +12038,7 @@
       </c>
     </row>
     <row r="133" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C133" s="44"/>
+      <c r="C133" s="49"/>
       <c r="D133" s="26">
         <v>4929</v>
       </c>
@@ -11932,7 +12062,7 @@
       </c>
     </row>
     <row r="134" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C134" s="44"/>
+      <c r="C134" s="49"/>
       <c r="D134" s="26">
         <v>4929</v>
       </c>
@@ -11956,7 +12086,7 @@
       </c>
     </row>
     <row r="135" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C135" s="44"/>
+      <c r="C135" s="49"/>
       <c r="D135" s="26">
         <v>4929</v>
       </c>
@@ -11980,7 +12110,7 @@
       </c>
     </row>
     <row r="136" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C136" s="44"/>
+      <c r="C136" s="49"/>
       <c r="D136" s="26">
         <v>4929</v>
       </c>
@@ -12004,7 +12134,7 @@
       </c>
     </row>
     <row r="137" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C137" s="44"/>
+      <c r="C137" s="49"/>
       <c r="D137" s="26">
         <v>4929</v>
       </c>
@@ -12028,7 +12158,7 @@
       </c>
     </row>
     <row r="138" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C138" s="44"/>
+      <c r="C138" s="49"/>
       <c r="D138" s="26">
         <v>4929</v>
       </c>
@@ -12052,7 +12182,7 @@
       </c>
     </row>
     <row r="139" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C139" s="44"/>
+      <c r="C139" s="49"/>
       <c r="D139" s="5">
         <v>4929</v>
       </c>
@@ -12076,7 +12206,7 @@
       </c>
     </row>
     <row r="140" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C140" s="44"/>
+      <c r="C140" s="49"/>
       <c r="D140" s="5">
         <v>4929</v>
       </c>
@@ -12100,7 +12230,7 @@
       </c>
     </row>
     <row r="141" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C141" s="44"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="5">
         <v>4929</v>
       </c>
@@ -12124,7 +12254,7 @@
       </c>
     </row>
     <row r="142" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C142" s="44"/>
+      <c r="C142" s="49"/>
       <c r="D142" s="5">
         <v>4929</v>
       </c>
@@ -12148,7 +12278,7 @@
       </c>
     </row>
     <row r="143" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C143" s="44"/>
+      <c r="C143" s="49"/>
       <c r="D143" s="5">
         <v>4929</v>
       </c>
@@ -12172,7 +12302,7 @@
       </c>
     </row>
     <row r="144" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C144" s="44"/>
+      <c r="C144" s="49"/>
       <c r="D144" s="5">
         <v>4929</v>
       </c>
@@ -12196,7 +12326,7 @@
       </c>
     </row>
     <row r="145" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C145" s="44"/>
+      <c r="C145" s="49"/>
       <c r="D145" s="26">
         <v>4929</v>
       </c>
@@ -12220,7 +12350,7 @@
       </c>
     </row>
     <row r="146" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C146" s="44"/>
+      <c r="C146" s="49"/>
       <c r="D146" s="26">
         <v>4929</v>
       </c>
@@ -12244,7 +12374,7 @@
       </c>
     </row>
     <row r="147" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C147" s="44"/>
+      <c r="C147" s="49"/>
       <c r="D147" s="26">
         <v>4929</v>
       </c>
@@ -12268,7 +12398,7 @@
       </c>
     </row>
     <row r="148" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C148" s="44"/>
+      <c r="C148" s="49"/>
       <c r="D148" s="26">
         <v>4929</v>
       </c>
@@ -12292,7 +12422,7 @@
       </c>
     </row>
     <row r="149" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C149" s="44"/>
+      <c r="C149" s="49"/>
       <c r="D149" s="26">
         <v>4929</v>
       </c>
@@ -12316,7 +12446,7 @@
       </c>
     </row>
     <row r="150" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C150" s="44"/>
+      <c r="C150" s="49"/>
       <c r="D150" s="26">
         <v>4929</v>
       </c>
